--- a/1_Documentation/listes_des_composants.xlsx
+++ b/1_Documentation/listes_des_composants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\Desktop\GitHub\BeerSpeed\1_Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FIX-4\Desktop\Github\BeerSpeed\1_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB45A9D-40BD-4EC1-B848-9B1CECEB5858}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5E8A61-4125-4926-8CA7-C334EF8D7B54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B6EC2C5E-601B-47A7-997A-A641185C8304}"/>
+    <workbookView xWindow="-75" yWindow="-75" windowWidth="19350" windowHeight="14910" xr2:uid="{B6EC2C5E-601B-47A7-997A-A641185C8304}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Reference</t>
   </si>
@@ -57,19 +56,52 @@
     <t>Prix</t>
   </si>
   <si>
-    <t>Atmega328 PB</t>
-  </si>
-  <si>
-    <t>http://www.farnell.com/datasheets/2915218.pdf</t>
-  </si>
-  <si>
-    <t>Farnell</t>
-  </si>
-  <si>
-    <t>Tilt Switch</t>
-  </si>
-  <si>
-    <t>http://www.farnell.com/datasheets/1825428.pdf</t>
+    <t>Atmega 8</t>
+  </si>
+  <si>
+    <t>Digi-Key</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/Atmel%20PDFs/ATmega8,L_Rev2007.pdf</t>
+  </si>
+  <si>
+    <t>https://sten-eswitch-13110800-production.s3.amazonaws.com/system/asset/product_line/data_sheet/128/TM1000.pdf</t>
+  </si>
+  <si>
+    <t>TM 1000</t>
+  </si>
+  <si>
+    <t>EG 1906</t>
+  </si>
+  <si>
+    <t>https://sten-eswitch-13110800-production.s3.amazonaws.com/system/asset/product_line/data_sheet/119/EG.pdf</t>
+  </si>
+  <si>
+    <t>‎LCD-S401C52TR‎</t>
+  </si>
+  <si>
+    <t>https://www.lumex.com/spec/LCD-S401C52TR.pdf</t>
+  </si>
+  <si>
+    <t>BS-7</t>
+  </si>
+  <si>
+    <t>https://www.memoryprotectiondevices.com/datasheets/BS-7-datasheet.pdf</t>
+  </si>
+  <si>
+    <t>‎ATS080BSM-1E</t>
+  </si>
+  <si>
+    <t>https://www.ctscorp.com/wp-content/uploads/ATS-ATSSM.pdf</t>
+  </si>
+  <si>
+    <t>https://datasheets.avx.com/C0GNP0-Dielectric.pdf</t>
+  </si>
+  <si>
+    <t>18pF 50V 0805</t>
+  </si>
+  <si>
+    <t>Prix unitaire</t>
   </si>
 </sst>
 </file>
@@ -79,7 +111,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;CHF&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +133,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,11 +171,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -453,18 +492,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53FEF37-4E42-4659-A0BC-2584F04D0F00}">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="109.85546875" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,341 +529,445 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="2">
-        <v>1.63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="H2" s="2">
+        <f>E2*G2</f>
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" s="2">
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G62" s="2"/>
-    </row>
-    <row r="63" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G63" s="2"/>
-    </row>
-    <row r="64" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G64" s="2"/>
-    </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G65" s="2"/>
-    </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G66" s="2"/>
-    </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G67" s="2"/>
-    </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G68" s="2"/>
-    </row>
-    <row r="69" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G69" s="2"/>
-    </row>
-    <row r="70" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G70" s="2"/>
-    </row>
-    <row r="71" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G71" s="2"/>
-    </row>
-    <row r="72" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G72" s="2"/>
-    </row>
-    <row r="73" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G73" s="2"/>
-    </row>
-    <row r="74" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G74" s="2"/>
-    </row>
-    <row r="75" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G75" s="2"/>
-    </row>
-    <row r="76" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G76" s="2"/>
-    </row>
-    <row r="77" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G77" s="2"/>
-    </row>
-    <row r="78" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G78" s="2"/>
-    </row>
-    <row r="79" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G79" s="2"/>
-    </row>
-    <row r="80" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G80" s="2"/>
-    </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G81" s="2"/>
-    </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G82" s="2"/>
-    </row>
-    <row r="83" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G83" s="2"/>
-    </row>
-    <row r="84" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G84" s="2"/>
-    </row>
-    <row r="85" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G85" s="2"/>
-    </row>
-    <row r="86" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G86" s="2"/>
-    </row>
-    <row r="87" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G87" s="2"/>
-    </row>
-    <row r="88" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G88" s="2"/>
-    </row>
-    <row r="89" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G89" s="2"/>
-    </row>
-    <row r="90" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G90" s="2"/>
-    </row>
-    <row r="91" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G91" s="2"/>
-    </row>
-    <row r="92" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G92" s="2"/>
-    </row>
-    <row r="93" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G93" s="2"/>
-    </row>
-    <row r="94" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G94" s="2"/>
-    </row>
-    <row r="95" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G95" s="2"/>
-    </row>
-    <row r="96" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G96" s="2"/>
-    </row>
-    <row r="97" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G97" s="2"/>
-    </row>
-    <row r="98" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G98" s="2"/>
-    </row>
-    <row r="99" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G99" s="2"/>
-    </row>
-    <row r="100" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G100" s="2"/>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H8" si="0">E3*G3</f>
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3.16</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="0"/>
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H68" s="2"/>
+    </row>
+    <row r="69" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H70" s="2"/>
+    </row>
+    <row r="71" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H71" s="2"/>
+    </row>
+    <row r="72" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H72" s="2"/>
+    </row>
+    <row r="73" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H73" s="2"/>
+    </row>
+    <row r="74" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H74" s="2"/>
+    </row>
+    <row r="75" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H75" s="2"/>
+    </row>
+    <row r="76" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H76" s="2"/>
+    </row>
+    <row r="77" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H77" s="2"/>
+    </row>
+    <row r="78" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H78" s="2"/>
+    </row>
+    <row r="79" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H79" s="2"/>
+    </row>
+    <row r="80" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H80" s="2"/>
+    </row>
+    <row r="81" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H81" s="2"/>
+    </row>
+    <row r="82" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H82" s="2"/>
+    </row>
+    <row r="83" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H83" s="2"/>
+    </row>
+    <row r="84" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H84" s="2"/>
+    </row>
+    <row r="85" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H85" s="2"/>
+    </row>
+    <row r="86" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H86" s="2"/>
+    </row>
+    <row r="87" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H87" s="2"/>
+    </row>
+    <row r="88" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H88" s="2"/>
+    </row>
+    <row r="89" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H89" s="2"/>
+    </row>
+    <row r="90" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H90" s="2"/>
+    </row>
+    <row r="91" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H91" s="2"/>
+    </row>
+    <row r="92" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H92" s="2"/>
+    </row>
+    <row r="93" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H93" s="2"/>
+    </row>
+    <row r="94" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H94" s="2"/>
+    </row>
+    <row r="95" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H95" s="2"/>
+    </row>
+    <row r="96" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H96" s="2"/>
+    </row>
+    <row r="97" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H97" s="2"/>
+    </row>
+    <row r="98" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H98" s="2"/>
+    </row>
+    <row r="99" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H99" s="2"/>
+    </row>
+    <row r="100" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H100" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{DDD62EC5-6CC2-4E30-9F04-CA7E57235095}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{BB207A0B-F236-4B5B-AC84-53D2750D71D5}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{3EBFEEFB-8C06-4082-84B0-9FA026260B08}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{BE98880D-2D37-4A4D-AB03-5BA280A81720}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{03AC1D47-B35F-48BF-BB46-966210E027D1}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{5EF8D5CE-D6A0-4D78-95F0-7976A063247D}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{C8DA084D-43BD-4995-82CE-3E2BFF988EBC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
   <headerFooter>
     <oddHeader>&amp;LListe des composants&amp;C&amp;20BeerSpeed</oddHeader>
   </headerFooter>

--- a/1_Documentation/listes_des_composants.xlsx
+++ b/1_Documentation/listes_des_composants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FIX-4\Desktop\Github\BeerSpeed\1_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5E8A61-4125-4926-8CA7-C334EF8D7B54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0053036E-87E6-44A4-A5E2-D190F302E2E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="-75" windowWidth="19350" windowHeight="14910" xr2:uid="{B6EC2C5E-601B-47A7-997A-A641185C8304}"/>
+    <workbookView xWindow="675" yWindow="2100" windowWidth="14400" windowHeight="10770" xr2:uid="{B6EC2C5E-601B-47A7-997A-A641185C8304}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -56,15 +56,9 @@
     <t>Prix</t>
   </si>
   <si>
-    <t>Atmega 8</t>
-  </si>
-  <si>
     <t>Digi-Key</t>
   </si>
   <si>
-    <t>https://media.digikey.com/pdf/Data%20Sheets/Atmel%20PDFs/ATmega8,L_Rev2007.pdf</t>
-  </si>
-  <si>
     <t>https://sten-eswitch-13110800-production.s3.amazonaws.com/system/asset/product_line/data_sheet/128/TM1000.pdf</t>
   </si>
   <si>
@@ -83,9 +77,6 @@
     <t>https://www.lumex.com/spec/LCD-S401C52TR.pdf</t>
   </si>
   <si>
-    <t>BS-7</t>
-  </si>
-  <si>
     <t>https://www.memoryprotectiondevices.com/datasheets/BS-7-datasheet.pdf</t>
   </si>
   <si>
@@ -102,6 +93,15 @@
   </si>
   <si>
     <t>Prix unitaire</t>
+  </si>
+  <si>
+    <t>Atmega 4809</t>
+  </si>
+  <si>
+    <t>https://ww1.microchip.com/downloads/en/DeviceDoc/ATmega4808-09-DataSheet-DS40002173C.pdf</t>
+  </si>
+  <si>
+    <t>BS-7-ND</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +529,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -537,37 +537,37 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" s="2">
-        <v>2.4700000000000002</v>
+        <v>1.47</v>
       </c>
       <c r="H2" s="2">
         <f>E2*G2</f>
-        <v>2.4700000000000002</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" s="2">
         <v>1.1599999999999999</v>
@@ -579,16 +579,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="2">
         <v>0.56999999999999995</v>
@@ -600,16 +600,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" s="2">
         <v>3.16</v>
@@ -621,16 +621,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="2">
         <v>0.6</v>
@@ -642,16 +642,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" s="2">
         <v>0.27</v>
@@ -663,16 +663,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8" s="2">
         <v>0.14000000000000001</v>
@@ -965,9 +965,11 @@
     <hyperlink ref="D6" r:id="rId3" xr:uid="{03AC1D47-B35F-48BF-BB46-966210E027D1}"/>
     <hyperlink ref="D7" r:id="rId4" xr:uid="{5EF8D5CE-D6A0-4D78-95F0-7976A063247D}"/>
     <hyperlink ref="D8" r:id="rId5" xr:uid="{C8DA084D-43BD-4995-82CE-3E2BFF988EBC}"/>
+    <hyperlink ref="D2" r:id="rId6" xr:uid="{43142D2E-7FF7-4A63-BBD6-01F518EE59E2}"/>
+    <hyperlink ref="D3" r:id="rId7" xr:uid="{0E6F5589-D4B1-494A-B4E7-9C9FE1AEDF1C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
   <headerFooter>
     <oddHeader>&amp;LListe des composants&amp;C&amp;20BeerSpeed</oddHeader>
   </headerFooter>

--- a/1_Documentation/listes_des_composants.xlsx
+++ b/1_Documentation/listes_des_composants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FIX-4\Desktop\Github\BeerSpeed\1_Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0053036E-87E6-44A4-A5E2-D190F302E2E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0D6F4C-743F-4E77-8C37-3185ED603C15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="675" yWindow="2100" windowWidth="14400" windowHeight="10770" xr2:uid="{B6EC2C5E-601B-47A7-997A-A641185C8304}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Reference</t>
   </si>
@@ -80,18 +80,6 @@
     <t>https://www.memoryprotectiondevices.com/datasheets/BS-7-datasheet.pdf</t>
   </si>
   <si>
-    <t>‎ATS080BSM-1E</t>
-  </si>
-  <si>
-    <t>https://www.ctscorp.com/wp-content/uploads/ATS-ATSSM.pdf</t>
-  </si>
-  <si>
-    <t>https://datasheets.avx.com/C0GNP0-Dielectric.pdf</t>
-  </si>
-  <si>
-    <t>18pF 50V 0805</t>
-  </si>
-  <si>
     <t>Prix unitaire</t>
   </si>
   <si>
@@ -102,6 +90,18 @@
   </si>
   <si>
     <t>BS-7-ND</t>
+  </si>
+  <si>
+    <t>16pF 50V 0805</t>
+  </si>
+  <si>
+    <t>10K ohm 1208</t>
+  </si>
+  <si>
+    <t>LFXTAL003151REEL</t>
+  </si>
+  <si>
+    <t>https://www.iqdfrequencyproducts.com/products/pn/LFXTAL003151Reel.pdf</t>
   </si>
 </sst>
 </file>
@@ -495,14 +495,14 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="109.85546875" customWidth="1"/>
+    <col min="4" max="4" width="88.140625" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
@@ -529,7 +529,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -537,10 +537,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -573,7 +573,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H8" si="0">E3*G3</f>
+        <f t="shared" ref="H3:H9" si="0">E3*G3</f>
         <v>1.1599999999999999</v>
       </c>
     </row>
@@ -621,7 +621,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>14</v>
@@ -642,10 +642,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -663,11 +663,9 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D8" s="3"/>
       <c r="E8">
         <v>2</v>
       </c>
@@ -683,7 +681,22 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H9" s="2"/>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.09</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H10" s="2"/>
@@ -964,12 +977,11 @@
     <hyperlink ref="D4" r:id="rId2" xr:uid="{BE98880D-2D37-4A4D-AB03-5BA280A81720}"/>
     <hyperlink ref="D6" r:id="rId3" xr:uid="{03AC1D47-B35F-48BF-BB46-966210E027D1}"/>
     <hyperlink ref="D7" r:id="rId4" xr:uid="{5EF8D5CE-D6A0-4D78-95F0-7976A063247D}"/>
-    <hyperlink ref="D8" r:id="rId5" xr:uid="{C8DA084D-43BD-4995-82CE-3E2BFF988EBC}"/>
-    <hyperlink ref="D2" r:id="rId6" xr:uid="{43142D2E-7FF7-4A63-BBD6-01F518EE59E2}"/>
-    <hyperlink ref="D3" r:id="rId7" xr:uid="{0E6F5589-D4B1-494A-B4E7-9C9FE1AEDF1C}"/>
+    <hyperlink ref="D2" r:id="rId5" xr:uid="{43142D2E-7FF7-4A63-BBD6-01F518EE59E2}"/>
+    <hyperlink ref="D3" r:id="rId6" xr:uid="{0E6F5589-D4B1-494A-B4E7-9C9FE1AEDF1C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
   <headerFooter>
     <oddHeader>&amp;LListe des composants&amp;C&amp;20BeerSpeed</oddHeader>
   </headerFooter>
